--- a/data/pca/factorExposure/factorExposure_2018-11-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.07608553109161942</v>
+        <v>-0.05192343854474776</v>
       </c>
       <c r="C2">
-        <v>0.05309746972966541</v>
+        <v>0.004281035195887174</v>
       </c>
       <c r="D2">
-        <v>-0.06873363347605072</v>
+        <v>0.03447098234483167</v>
       </c>
       <c r="E2">
-        <v>0.002730852146647367</v>
+        <v>-0.007434244621434261</v>
       </c>
       <c r="F2">
-        <v>0.1151757247908011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03778805038974544</v>
+      </c>
+      <c r="G2">
+        <v>-0.1000465908599262</v>
+      </c>
+      <c r="H2">
+        <v>0.07825508911760905</v>
+      </c>
+      <c r="I2">
+        <v>0.06692547651759376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1945076394346921</v>
+        <v>-0.1302231428159863</v>
       </c>
       <c r="C3">
-        <v>-0.01806760991600012</v>
+        <v>-0.0438772070731278</v>
       </c>
       <c r="D3">
-        <v>-0.1213588113729459</v>
+        <v>0.05901343034543755</v>
       </c>
       <c r="E3">
-        <v>0.02120331761307444</v>
+        <v>0.01203113021315939</v>
       </c>
       <c r="F3">
-        <v>0.3925013604873476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01109241229423146</v>
+      </c>
+      <c r="G3">
+        <v>-0.3557452663433808</v>
+      </c>
+      <c r="H3">
+        <v>0.2788251428383142</v>
+      </c>
+      <c r="I3">
+        <v>0.04093144241472325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07281643484284032</v>
+        <v>-0.05970260203592361</v>
       </c>
       <c r="C4">
-        <v>0.02922715778444243</v>
+        <v>-0.000569880710380547</v>
       </c>
       <c r="D4">
-        <v>-0.05887344943340579</v>
+        <v>0.03568522809680987</v>
       </c>
       <c r="E4">
-        <v>0.05362041598408888</v>
+        <v>0.02643425288465678</v>
       </c>
       <c r="F4">
-        <v>0.05198511382398889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05788547892549879</v>
+      </c>
+      <c r="G4">
+        <v>-0.06181663672845381</v>
+      </c>
+      <c r="H4">
+        <v>0.02811105677043947</v>
+      </c>
+      <c r="I4">
+        <v>0.03929684132828348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.005896004713800682</v>
+        <v>-0.02907176185083928</v>
       </c>
       <c r="C6">
-        <v>0.0008079585739985605</v>
+        <v>0.001973467453694638</v>
       </c>
       <c r="D6">
-        <v>-0.0001010552520397433</v>
+        <v>0.01819672767771144</v>
       </c>
       <c r="E6">
-        <v>-0.005917076853259598</v>
+        <v>0.009125231674902094</v>
       </c>
       <c r="F6">
-        <v>0.002224338869087551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02157431279338098</v>
+      </c>
+      <c r="G6">
+        <v>-0.01838910741656929</v>
+      </c>
+      <c r="H6">
+        <v>-0.03404881274421739</v>
+      </c>
+      <c r="I6">
+        <v>-0.009770421021915367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0340126115256719</v>
+        <v>-0.03126066468226666</v>
       </c>
       <c r="C7">
-        <v>0.02157345614650563</v>
+        <v>0.0007341171589223997</v>
       </c>
       <c r="D7">
-        <v>-0.04494171354055419</v>
+        <v>0.001714327411411395</v>
       </c>
       <c r="E7">
-        <v>0.009090765698207534</v>
+        <v>0.03754412848471635</v>
       </c>
       <c r="F7">
-        <v>0.07100006020861745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03168782155306412</v>
+      </c>
+      <c r="G7">
+        <v>-0.04274432237298666</v>
+      </c>
+      <c r="H7">
+        <v>0.04923654340682988</v>
+      </c>
+      <c r="I7">
+        <v>-0.001301702059460253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03961005097174516</v>
+        <v>-0.0137170197302475</v>
       </c>
       <c r="C8">
-        <v>-0.002287387264879566</v>
+        <v>-0.01187920170970217</v>
       </c>
       <c r="D8">
-        <v>-0.04453221388251433</v>
+        <v>0.035874505193643</v>
       </c>
       <c r="E8">
-        <v>0.04264141191031446</v>
+        <v>0.02397994594196177</v>
       </c>
       <c r="F8">
-        <v>0.07296715529578791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02215535652954513</v>
+      </c>
+      <c r="G8">
+        <v>-0.06005570136535255</v>
+      </c>
+      <c r="H8">
+        <v>0.05590001200199463</v>
+      </c>
+      <c r="I8">
+        <v>0.03122082464946672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.05968075648144704</v>
+        <v>-0.05009936187774243</v>
       </c>
       <c r="C9">
-        <v>0.02806403755398605</v>
+        <v>-0.004066617915616482</v>
       </c>
       <c r="D9">
-        <v>-0.04086858794697864</v>
+        <v>0.02560059541573841</v>
       </c>
       <c r="E9">
-        <v>0.05934476299658935</v>
+        <v>0.02464547238550563</v>
       </c>
       <c r="F9">
-        <v>0.05107131641652424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04438142153026919</v>
+      </c>
+      <c r="G9">
+        <v>-0.0704589348617221</v>
+      </c>
+      <c r="H9">
+        <v>0.02950069738667769</v>
+      </c>
+      <c r="I9">
+        <v>0.04163486522867043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03512546231812257</v>
+        <v>-0.06173955664262176</v>
       </c>
       <c r="C10">
-        <v>0.08351252052811897</v>
+        <v>0.007341713690644516</v>
       </c>
       <c r="D10">
-        <v>0.1135530914320592</v>
+        <v>-0.1458790083369559</v>
       </c>
       <c r="E10">
-        <v>-0.09348898789956493</v>
+        <v>-0.06662761272844137</v>
       </c>
       <c r="F10">
-        <v>0.04898895164120094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04853772136900382</v>
+      </c>
+      <c r="G10">
+        <v>-0.04610078429366297</v>
+      </c>
+      <c r="H10">
+        <v>0.03465610536148925</v>
+      </c>
+      <c r="I10">
+        <v>0.03987457962854476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.04833308169143592</v>
+        <v>-0.04033375460755188</v>
       </c>
       <c r="C11">
-        <v>0.00569060314345881</v>
+        <v>-0.01505005976200846</v>
       </c>
       <c r="D11">
-        <v>-0.0313349386196205</v>
+        <v>0.03607460024884716</v>
       </c>
       <c r="E11">
-        <v>0.01031745899046711</v>
+        <v>0.006726731637557723</v>
       </c>
       <c r="F11">
-        <v>0.0420707277533789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01707075063769061</v>
+      </c>
+      <c r="G11">
+        <v>-0.03302095353791087</v>
+      </c>
+      <c r="H11">
+        <v>0.003542749810240829</v>
+      </c>
+      <c r="I11">
+        <v>0.01682732049620842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04626254174422249</v>
+        <v>-0.04092678169534726</v>
       </c>
       <c r="C12">
-        <v>0.006303112318531472</v>
+        <v>-0.006753838079513148</v>
       </c>
       <c r="D12">
-        <v>-0.02924597095890694</v>
+        <v>0.03073541084806854</v>
       </c>
       <c r="E12">
-        <v>0.03046602636210145</v>
+        <v>0.01624755891884336</v>
       </c>
       <c r="F12">
-        <v>0.02711212116996822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0228162117235401</v>
+      </c>
+      <c r="G12">
+        <v>-0.01254080204371389</v>
+      </c>
+      <c r="H12">
+        <v>0.004327280177029697</v>
+      </c>
+      <c r="I12">
+        <v>0.006551177157992613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.04808724397703282</v>
+        <v>-0.03959914460311209</v>
       </c>
       <c r="C13">
-        <v>0.01772954541592149</v>
+        <v>0.007264835004116033</v>
       </c>
       <c r="D13">
-        <v>-0.04642884177704189</v>
+        <v>0.02837596622817989</v>
       </c>
       <c r="E13">
-        <v>-0.01977263583853532</v>
+        <v>-0.009042309266824103</v>
       </c>
       <c r="F13">
-        <v>0.1097112239244364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01685472938038144</v>
+      </c>
+      <c r="G13">
+        <v>-0.08239614163121542</v>
+      </c>
+      <c r="H13">
+        <v>0.03929550473317612</v>
+      </c>
+      <c r="I13">
+        <v>0.0327190069065673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02477749965435582</v>
+        <v>-0.02100426571912617</v>
       </c>
       <c r="C14">
-        <v>0.01706680603380876</v>
+        <v>-0.001510649212945513</v>
       </c>
       <c r="D14">
-        <v>-0.03949706320459129</v>
+        <v>0.01317609105081082</v>
       </c>
       <c r="E14">
-        <v>0.02076544971743529</v>
+        <v>0.01100642689260585</v>
       </c>
       <c r="F14">
-        <v>0.0366572861389343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03200625086259497</v>
+      </c>
+      <c r="G14">
+        <v>-0.03287501197015782</v>
+      </c>
+      <c r="H14">
+        <v>0.06588951131346067</v>
+      </c>
+      <c r="I14">
+        <v>0.01463881255980517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.03922568692665015</v>
+        <v>-0.03457019772777038</v>
       </c>
       <c r="C16">
-        <v>0.00481444814365783</v>
+        <v>-0.01278050634127425</v>
       </c>
       <c r="D16">
-        <v>-0.02772573764650707</v>
+        <v>0.0310095579342548</v>
       </c>
       <c r="E16">
-        <v>0.0121284636056913</v>
+        <v>0.01040945004446999</v>
       </c>
       <c r="F16">
-        <v>0.03280589182305934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02145594997938031</v>
+      </c>
+      <c r="G16">
+        <v>-0.02903563414037739</v>
+      </c>
+      <c r="H16">
+        <v>0.006781398236049637</v>
+      </c>
+      <c r="I16">
+        <v>0.006395863272542195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06185060047746202</v>
+        <v>-0.04720381829694526</v>
       </c>
       <c r="C19">
-        <v>-0.001753198208508981</v>
+        <v>-0.006604624195079099</v>
       </c>
       <c r="D19">
-        <v>-0.03794510297353646</v>
+        <v>0.03890455987435191</v>
       </c>
       <c r="E19">
-        <v>-0.00122709790810548</v>
+        <v>0.006825867847215253</v>
       </c>
       <c r="F19">
-        <v>0.08180256259266647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02213395842560325</v>
+      </c>
+      <c r="G19">
+        <v>-0.07817914452991857</v>
+      </c>
+      <c r="H19">
+        <v>0.04792161388028603</v>
+      </c>
+      <c r="I19">
+        <v>0.02144493494384291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.0170196470001863</v>
+        <v>-0.01233622968426428</v>
       </c>
       <c r="C20">
-        <v>0.008328171440685511</v>
+        <v>0.001789598881787749</v>
       </c>
       <c r="D20">
-        <v>-0.04387740626657095</v>
+        <v>0.0192027485214841</v>
       </c>
       <c r="E20">
-        <v>0.0303383705494444</v>
+        <v>0.01032464303578007</v>
       </c>
       <c r="F20">
-        <v>0.06476712103402495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02165705881805341</v>
+      </c>
+      <c r="G20">
+        <v>-0.04961309579483702</v>
+      </c>
+      <c r="H20">
+        <v>0.06171772001146774</v>
+      </c>
+      <c r="I20">
+        <v>0.01028666721250628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01892954643944605</v>
+        <v>-0.02847202144621867</v>
       </c>
       <c r="C21">
-        <v>-0.006518558031531447</v>
+        <v>0.001573613116373894</v>
       </c>
       <c r="D21">
-        <v>-0.03844981812802751</v>
+        <v>0.01935177387013472</v>
       </c>
       <c r="E21">
-        <v>0.01252949581740601</v>
+        <v>0.01918740456647237</v>
       </c>
       <c r="F21">
-        <v>0.07466955896805288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01432255832905858</v>
+      </c>
+      <c r="G21">
+        <v>-0.05497561750678852</v>
+      </c>
+      <c r="H21">
+        <v>0.0307081542734662</v>
+      </c>
+      <c r="I21">
+        <v>0.05583575820766694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03730055267024072</v>
+        <v>-0.03313703983075095</v>
       </c>
       <c r="C24">
-        <v>0.004775013655804058</v>
+        <v>-0.009971453780683872</v>
       </c>
       <c r="D24">
-        <v>-0.02522680769388863</v>
+        <v>0.02863674252371717</v>
       </c>
       <c r="E24">
-        <v>0.01294208041722395</v>
+        <v>0.01011000622295866</v>
       </c>
       <c r="F24">
-        <v>0.04260864324104734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01712555451421941</v>
+      </c>
+      <c r="G24">
+        <v>-0.03111360686522217</v>
+      </c>
+      <c r="H24">
+        <v>0.002789437495020672</v>
+      </c>
+      <c r="I24">
+        <v>0.01071382148756878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04043378547922143</v>
+        <v>-0.04162197828150514</v>
       </c>
       <c r="C25">
-        <v>0.006425319894360029</v>
+        <v>-0.005084683471351181</v>
       </c>
       <c r="D25">
-        <v>-0.02867415723694033</v>
+        <v>0.02989023002070588</v>
       </c>
       <c r="E25">
-        <v>0.01945881341285073</v>
+        <v>0.01031367352298317</v>
       </c>
       <c r="F25">
-        <v>0.05005106644346801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02074695392259972</v>
+      </c>
+      <c r="G25">
+        <v>-0.04221382304412403</v>
+      </c>
+      <c r="H25">
+        <v>7.527853781161845e-05</v>
+      </c>
+      <c r="I25">
+        <v>0.017312248977683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02109270047729624</v>
+        <v>-0.01676383961972823</v>
       </c>
       <c r="C26">
-        <v>-0.004345891615771616</v>
+        <v>0.01575762360733788</v>
       </c>
       <c r="D26">
-        <v>-0.04985672284129858</v>
+        <v>0.02686041361860719</v>
       </c>
       <c r="E26">
-        <v>-0.001257557942150685</v>
+        <v>0.003904480014720525</v>
       </c>
       <c r="F26">
-        <v>0.04784059562158177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.00892872924463628</v>
+      </c>
+      <c r="G26">
+        <v>-0.04232265761780507</v>
+      </c>
+      <c r="H26">
+        <v>0.03917922643930852</v>
+      </c>
+      <c r="I26">
+        <v>0.01193914084002599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1021945868078984</v>
+        <v>-0.05671469439277033</v>
       </c>
       <c r="C27">
-        <v>0.03951430618786334</v>
+        <v>-0.01772922468828108</v>
       </c>
       <c r="D27">
-        <v>-0.03571229458260514</v>
+        <v>0.01512620683867453</v>
       </c>
       <c r="E27">
-        <v>0.03516829555018003</v>
+        <v>0.005816777658826292</v>
       </c>
       <c r="F27">
-        <v>0.05165831112329596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02623478672698795</v>
+      </c>
+      <c r="G27">
+        <v>-0.03846106661439413</v>
+      </c>
+      <c r="H27">
+        <v>0.03627941916092802</v>
+      </c>
+      <c r="I27">
+        <v>0.0183572194826794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05249114561176287</v>
+        <v>-0.09147964883241219</v>
       </c>
       <c r="C28">
-        <v>0.1063726838912536</v>
+        <v>0.02149081305896849</v>
       </c>
       <c r="D28">
-        <v>0.186123259403064</v>
+        <v>-0.2230948291624213</v>
       </c>
       <c r="E28">
-        <v>-0.128443955432411</v>
+        <v>-0.09339368747879014</v>
       </c>
       <c r="F28">
-        <v>0.01759341472650916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.07266856798179371</v>
+      </c>
+      <c r="G28">
+        <v>-0.02496729292260194</v>
+      </c>
+      <c r="H28">
+        <v>0.05186487383386158</v>
+      </c>
+      <c r="I28">
+        <v>0.03137278942583938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02780437980086427</v>
+        <v>-0.02372129199313096</v>
       </c>
       <c r="C29">
-        <v>0.01301862076036069</v>
+        <v>-0.002746374212179321</v>
       </c>
       <c r="D29">
-        <v>-0.03906393618880186</v>
+        <v>0.01329025865150402</v>
       </c>
       <c r="E29">
-        <v>0.03087773125695026</v>
+        <v>0.01224049616003595</v>
       </c>
       <c r="F29">
-        <v>0.02126297031236933</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0337104901501972</v>
+      </c>
+      <c r="G29">
+        <v>-0.02759173434752133</v>
+      </c>
+      <c r="H29">
+        <v>0.06226310374595912</v>
+      </c>
+      <c r="I29">
+        <v>0.01603467362484885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.09690566341773243</v>
+        <v>-0.08118108651842809</v>
       </c>
       <c r="C30">
-        <v>0.0524397846831404</v>
+        <v>0.003230008033330052</v>
       </c>
       <c r="D30">
-        <v>-0.06609903215121714</v>
+        <v>0.06504199688974015</v>
       </c>
       <c r="E30">
-        <v>0.01710387266900006</v>
+        <v>-0.02296619405076244</v>
       </c>
       <c r="F30">
-        <v>0.09509956340619165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.06119464604126383</v>
+      </c>
+      <c r="G30">
+        <v>-0.09150272513135202</v>
+      </c>
+      <c r="H30">
+        <v>0.0162105652514068</v>
+      </c>
+      <c r="I30">
+        <v>0.0004519225368776374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.05807561711637656</v>
+        <v>-0.05395501751680647</v>
       </c>
       <c r="C31">
-        <v>0.01766193725993786</v>
+        <v>-0.01609074809842073</v>
       </c>
       <c r="D31">
-        <v>-0.03248939240379788</v>
+        <v>0.01578348110442211</v>
       </c>
       <c r="E31">
-        <v>-0.02600150467283525</v>
+        <v>-0.003913537331723459</v>
       </c>
       <c r="F31">
-        <v>-0.01419589901317455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01732918882650115</v>
+      </c>
+      <c r="G31">
+        <v>0.0033282134715568</v>
+      </c>
+      <c r="H31">
+        <v>0.05813883601994366</v>
+      </c>
+      <c r="I31">
+        <v>0.04245241797015619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.05584629811765714</v>
+        <v>-0.02978622626734835</v>
       </c>
       <c r="C32">
-        <v>0.01869673609542366</v>
+        <v>-0.02503599288718079</v>
       </c>
       <c r="D32">
-        <v>-0.05078073240677669</v>
+        <v>0.02490704516907114</v>
       </c>
       <c r="E32">
-        <v>0.0348145469383948</v>
+        <v>0.02171557243295393</v>
       </c>
       <c r="F32">
-        <v>0.06824820562508453</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04909578676536019</v>
+      </c>
+      <c r="G32">
+        <v>-0.07417520067290824</v>
+      </c>
+      <c r="H32">
+        <v>0.005590277522167739</v>
+      </c>
+      <c r="I32">
+        <v>0.007307144620279362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.05467706738545261</v>
+        <v>-0.04542343686038706</v>
       </c>
       <c r="C33">
-        <v>-0.002365849251773676</v>
+        <v>-0.01010428018377546</v>
       </c>
       <c r="D33">
-        <v>-0.07252513684780987</v>
+        <v>0.05231763097409396</v>
       </c>
       <c r="E33">
-        <v>0.01290710041093716</v>
+        <v>-0.004325659657682398</v>
       </c>
       <c r="F33">
-        <v>0.07151538437583098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01410687447348341</v>
+      </c>
+      <c r="G33">
+        <v>-0.06320262369577899</v>
+      </c>
+      <c r="H33">
+        <v>0.05030069578015718</v>
+      </c>
+      <c r="I33">
+        <v>0.03515612489814543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04062356482702635</v>
+        <v>-0.03553920983070688</v>
       </c>
       <c r="C34">
-        <v>0.0120220804514158</v>
+        <v>-0.02019725963551483</v>
       </c>
       <c r="D34">
-        <v>-0.03218232000485914</v>
+        <v>0.02786925073626693</v>
       </c>
       <c r="E34">
-        <v>0.01830630751300645</v>
+        <v>0.01453622450894805</v>
       </c>
       <c r="F34">
-        <v>0.04069709165492881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0274990168065293</v>
+      </c>
+      <c r="G34">
+        <v>-0.03620262205246923</v>
+      </c>
+      <c r="H34">
+        <v>0.004797352869214459</v>
+      </c>
+      <c r="I34">
+        <v>0.01329543858904369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01759618576857557</v>
+        <v>-0.01989900333748425</v>
       </c>
       <c r="C36">
-        <v>0.01498635455644363</v>
+        <v>0.003948877641758316</v>
       </c>
       <c r="D36">
-        <v>-0.00868345482188679</v>
+        <v>-0.0002035392186517011</v>
       </c>
       <c r="E36">
-        <v>0.007055967847858795</v>
+        <v>0.002242557428574328</v>
       </c>
       <c r="F36">
-        <v>0.02181203743605529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01415480745786628</v>
+      </c>
+      <c r="G36">
+        <v>-0.02265829419576303</v>
+      </c>
+      <c r="H36">
+        <v>0.03506038548346099</v>
+      </c>
+      <c r="I36">
+        <v>0.02306501960306303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.01551222188391177</v>
+        <v>-0.02034010636443121</v>
       </c>
       <c r="C38">
-        <v>0.008141380007773031</v>
+        <v>-0.01339346760029555</v>
       </c>
       <c r="D38">
-        <v>0.009978817993285783</v>
+        <v>0.001064132003157978</v>
       </c>
       <c r="E38">
-        <v>0.004644331764965658</v>
+        <v>0.005076206912493061</v>
       </c>
       <c r="F38">
-        <v>0.01859046214263828</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.002856268850226901</v>
+      </c>
+      <c r="G38">
+        <v>-0.03910780189107196</v>
+      </c>
+      <c r="H38">
+        <v>0.02963919556624518</v>
+      </c>
+      <c r="I38">
+        <v>0.03077433321257705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.05458505280215649</v>
+        <v>-0.04149454142224646</v>
       </c>
       <c r="C39">
-        <v>0.01159854116007615</v>
+        <v>-0.01050064532018598</v>
       </c>
       <c r="D39">
-        <v>-0.04923947581714516</v>
+        <v>0.05169506578279049</v>
       </c>
       <c r="E39">
-        <v>0.008540928870422406</v>
+        <v>0.01189710608093802</v>
       </c>
       <c r="F39">
-        <v>0.02942614241626772</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.03268340017386316</v>
+      </c>
+      <c r="G39">
+        <v>-0.05152796398600351</v>
+      </c>
+      <c r="H39">
+        <v>-0.002202495721961437</v>
+      </c>
+      <c r="I39">
+        <v>0.02481060222413506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.05600644560495163</v>
+        <v>-0.04529440748513727</v>
       </c>
       <c r="C40">
-        <v>0.03140222051192135</v>
+        <v>-0.01039956877056691</v>
       </c>
       <c r="D40">
-        <v>-0.07299346452275811</v>
+        <v>0.04396521598240891</v>
       </c>
       <c r="E40">
-        <v>-0.01461735789732225</v>
+        <v>-0.01096746171768875</v>
       </c>
       <c r="F40">
-        <v>0.08045093072550617</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03444480106380954</v>
+      </c>
+      <c r="G40">
+        <v>-0.06932066997736325</v>
+      </c>
+      <c r="H40">
+        <v>0.0387984396788675</v>
+      </c>
+      <c r="I40">
+        <v>0.03337049490685988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009792319013034696</v>
+        <v>-0.0008834786536146645</v>
       </c>
       <c r="C41">
-        <v>-0.00466991887913368</v>
+        <v>0.0004450412704132488</v>
       </c>
       <c r="D41">
-        <v>-0.02588459541436951</v>
+        <v>0.002203852445382251</v>
       </c>
       <c r="E41">
-        <v>0.01894797575455645</v>
+        <v>0.001461068774719128</v>
       </c>
       <c r="F41">
-        <v>-0.01330053201036414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.00641583091139475</v>
+      </c>
+      <c r="G41">
+        <v>0.0002009846419331165</v>
+      </c>
+      <c r="H41">
+        <v>0.05461150891061683</v>
+      </c>
+      <c r="I41">
+        <v>0.03561015128114591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.3561250258338751</v>
+        <v>-0.2476189263802804</v>
       </c>
       <c r="C42">
-        <v>-0.8644924823118711</v>
+        <v>0.07121818437623059</v>
       </c>
       <c r="D42">
-        <v>0.1541615963687092</v>
+        <v>0.3792442163824673</v>
       </c>
       <c r="E42">
-        <v>-0.2578499110119688</v>
+        <v>0.1100229298946832</v>
       </c>
       <c r="F42">
-        <v>-0.06330611197864916</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8567454837466962</v>
+      </c>
+      <c r="G42">
+        <v>0.1323788451681641</v>
+      </c>
+      <c r="H42">
+        <v>-0.0175937608790903</v>
+      </c>
+      <c r="I42">
+        <v>0.001319695066880418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008715126184555005</v>
+        <v>-0.003311060668222939</v>
       </c>
       <c r="C43">
-        <v>-0.003364703368679757</v>
+        <v>0.006963371581123133</v>
       </c>
       <c r="D43">
-        <v>-0.02528623023207125</v>
+        <v>0.005517654837474422</v>
       </c>
       <c r="E43">
-        <v>0.00528680565309292</v>
+        <v>-0.001010806113341792</v>
       </c>
       <c r="F43">
-        <v>0.02866835185398257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004696263755454709</v>
+      </c>
+      <c r="G43">
+        <v>-0.01378162715401567</v>
+      </c>
+      <c r="H43">
+        <v>0.04776613753548468</v>
+      </c>
+      <c r="I43">
+        <v>0.01928641569991058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03037107298424837</v>
+        <v>-0.01814351403460618</v>
       </c>
       <c r="C44">
-        <v>-0.001320051336697406</v>
+        <v>-0.004308017039082432</v>
       </c>
       <c r="D44">
-        <v>-0.0582041248694926</v>
+        <v>0.02896721366790262</v>
       </c>
       <c r="E44">
-        <v>0.01759978082328407</v>
+        <v>0.01368670893696526</v>
       </c>
       <c r="F44">
-        <v>0.1206732935003017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0119356325448132</v>
+      </c>
+      <c r="G44">
+        <v>-0.1067425271014981</v>
+      </c>
+      <c r="H44">
+        <v>0.1035913432966463</v>
+      </c>
+      <c r="I44">
+        <v>0.04335082056006852</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03050236306240919</v>
+        <v>-0.0230819356228905</v>
       </c>
       <c r="C46">
-        <v>0.0118619843681647</v>
+        <v>-0.001498652503341047</v>
       </c>
       <c r="D46">
-        <v>-0.05307181036285487</v>
+        <v>0.0300845021154192</v>
       </c>
       <c r="E46">
-        <v>0.02002703899069801</v>
+        <v>0.005386875918845887</v>
       </c>
       <c r="F46">
-        <v>0.01475493827983822</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03805408513812946</v>
+      </c>
+      <c r="G46">
+        <v>-0.04043772310938891</v>
+      </c>
+      <c r="H46">
+        <v>0.06675819061995693</v>
+      </c>
+      <c r="I46">
+        <v>0.01573783618756295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08737248665658524</v>
+        <v>-0.08006820273145465</v>
       </c>
       <c r="C47">
-        <v>0.02594960972405196</v>
+        <v>-0.02648800083992208</v>
       </c>
       <c r="D47">
-        <v>-0.03486891801633499</v>
+        <v>0.02217030705486693</v>
       </c>
       <c r="E47">
-        <v>0.01815800468333043</v>
+        <v>0.002989271231131096</v>
       </c>
       <c r="F47">
-        <v>-0.03006303569192605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02907181906361009</v>
+      </c>
+      <c r="G47">
+        <v>0.02986835547101901</v>
+      </c>
+      <c r="H47">
+        <v>0.07060704157834904</v>
+      </c>
+      <c r="I47">
+        <v>0.02694926676667446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01313959735932283</v>
+        <v>-0.01981736276815934</v>
       </c>
       <c r="C48">
-        <v>0.009246976376853115</v>
+        <v>-0.006553532842250005</v>
       </c>
       <c r="D48">
-        <v>-0.0299525800408364</v>
+        <v>0.009726419116333103</v>
       </c>
       <c r="E48">
-        <v>0.01121681266640688</v>
+        <v>0.003371313169043583</v>
       </c>
       <c r="F48">
-        <v>0.03703812787752111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01634332742148654</v>
+      </c>
+      <c r="G48">
+        <v>-0.02562205855081564</v>
+      </c>
+      <c r="H48">
+        <v>0.03184867310772068</v>
+      </c>
+      <c r="I48">
+        <v>0.01548012429882557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08474523785766903</v>
+        <v>-0.07762493726545983</v>
       </c>
       <c r="C50">
-        <v>0.005368574929956969</v>
+        <v>-0.02608460163100893</v>
       </c>
       <c r="D50">
-        <v>-0.0385413378458303</v>
+        <v>0.03274725578179152</v>
       </c>
       <c r="E50">
-        <v>0.004199881864272005</v>
+        <v>0.02146079108924965</v>
       </c>
       <c r="F50">
-        <v>-0.01485539220375372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01871694316235712</v>
+      </c>
+      <c r="G50">
+        <v>0.01048714090114904</v>
+      </c>
+      <c r="H50">
+        <v>0.05110165910972355</v>
+      </c>
+      <c r="I50">
+        <v>-0.006413639061368685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.04757383189680138</v>
+        <v>-0.03174760087090552</v>
       </c>
       <c r="C51">
-        <v>0.001898087268055194</v>
+        <v>0.003707109140361801</v>
       </c>
       <c r="D51">
-        <v>-0.02242845599469552</v>
+        <v>0.002279301831600593</v>
       </c>
       <c r="E51">
-        <v>-0.04043375819777331</v>
+        <v>-0.009591218761711089</v>
       </c>
       <c r="F51">
-        <v>0.07128299738309413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.009051516867308464</v>
+      </c>
+      <c r="G51">
+        <v>-0.07799656017698023</v>
+      </c>
+      <c r="H51">
+        <v>0.08900802019489985</v>
+      </c>
+      <c r="I51">
+        <v>0.05089900327482331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1178935328096228</v>
+        <v>-0.1060917312592333</v>
       </c>
       <c r="C53">
-        <v>0.02606807962196147</v>
+        <v>-0.03539632982668299</v>
       </c>
       <c r="D53">
-        <v>-0.06996643787655984</v>
+        <v>0.04850487939067707</v>
       </c>
       <c r="E53">
-        <v>0.01663116744120707</v>
+        <v>0.0105016804200308</v>
       </c>
       <c r="F53">
-        <v>-0.06933650238255996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05176188767953481</v>
+      </c>
+      <c r="G53">
+        <v>0.05761694574009329</v>
+      </c>
+      <c r="H53">
+        <v>0.02458759832265968</v>
+      </c>
+      <c r="I53">
+        <v>0.01913519540001601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02429743715097554</v>
+        <v>-0.02590853208448218</v>
       </c>
       <c r="C54">
-        <v>0.02515658631751783</v>
+        <v>-0.01022429050328493</v>
       </c>
       <c r="D54">
-        <v>-0.02540130976955384</v>
+        <v>-0.0005847006774899278</v>
       </c>
       <c r="E54">
-        <v>0.0169614653359363</v>
+        <v>0.00324502627087289</v>
       </c>
       <c r="F54">
-        <v>0.03022063220860825</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03099799026479167</v>
+      </c>
+      <c r="G54">
+        <v>-0.02377775310266973</v>
+      </c>
+      <c r="H54">
+        <v>0.06339117988521815</v>
+      </c>
+      <c r="I54">
+        <v>0.02639320455187335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1055351671841293</v>
+        <v>-0.09177639218565049</v>
       </c>
       <c r="C55">
-        <v>0.0261086109291441</v>
+        <v>-0.03844698625861025</v>
       </c>
       <c r="D55">
-        <v>-0.0219113656095901</v>
+        <v>0.0362590567433265</v>
       </c>
       <c r="E55">
-        <v>0.04685794522804981</v>
+        <v>0.02260247735965367</v>
       </c>
       <c r="F55">
-        <v>-0.0536020660673498</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04305549857098881</v>
+      </c>
+      <c r="G55">
+        <v>0.05455407638224773</v>
+      </c>
+      <c r="H55">
+        <v>0.02667215789146217</v>
+      </c>
+      <c r="I55">
+        <v>-0.01415113636128171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1355005796038299</v>
+        <v>-0.137050841893664</v>
       </c>
       <c r="C56">
-        <v>0.06375776801207658</v>
+        <v>-0.05167467209627317</v>
       </c>
       <c r="D56">
-        <v>-0.05061820909945427</v>
+        <v>0.0386035696825318</v>
       </c>
       <c r="E56">
-        <v>0.05072033134420405</v>
+        <v>0.01245664197230975</v>
       </c>
       <c r="F56">
-        <v>-0.1145885340251067</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07575507767224877</v>
+      </c>
+      <c r="G56">
+        <v>0.1024866389432723</v>
+      </c>
+      <c r="H56">
+        <v>-0.01115838108639257</v>
+      </c>
+      <c r="I56">
+        <v>-0.01622754438732423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.06548101318594332</v>
+        <v>-0.05749681450577647</v>
       </c>
       <c r="C57">
-        <v>0.01910019524202334</v>
+        <v>0.00733013371926399</v>
       </c>
       <c r="D57">
-        <v>-0.04772342345725648</v>
+        <v>0.03378105830313756</v>
       </c>
       <c r="E57">
-        <v>-0.0128273439940867</v>
+        <v>-0.006840726810602799</v>
       </c>
       <c r="F57">
-        <v>0.07026081997725198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01046285294561071</v>
+      </c>
+      <c r="G57">
+        <v>-0.05795900406487675</v>
+      </c>
+      <c r="H57">
+        <v>0.0338037584722768</v>
+      </c>
+      <c r="I57">
+        <v>0.02051210525058138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2199926926595245</v>
+        <v>-0.190158485514068</v>
       </c>
       <c r="C58">
-        <v>0.03766059736055592</v>
+        <v>-0.06267932553503684</v>
       </c>
       <c r="D58">
-        <v>-0.1313203032916053</v>
+        <v>0.1408162542785495</v>
       </c>
       <c r="E58">
-        <v>-0.000693676088700837</v>
+        <v>-0.0580881056129031</v>
       </c>
       <c r="F58">
-        <v>0.2526672430652904</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.009172931989217207</v>
+      </c>
+      <c r="G58">
+        <v>-0.3780371815012171</v>
+      </c>
+      <c r="H58">
+        <v>0.3737734422027267</v>
+      </c>
+      <c r="I58">
+        <v>-0.398648477734429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.05146902315291665</v>
+        <v>-0.0947505210401134</v>
       </c>
       <c r="C59">
-        <v>0.1218206645231763</v>
+        <v>0.01889046752184692</v>
       </c>
       <c r="D59">
-        <v>0.1298009197932501</v>
+        <v>-0.1880411710099019</v>
       </c>
       <c r="E59">
-        <v>-0.07896479562183792</v>
+        <v>-0.09689333745511763</v>
       </c>
       <c r="F59">
-        <v>0.01540603502462501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.02853738925844999</v>
+      </c>
+      <c r="G59">
+        <v>-0.04420883212024742</v>
+      </c>
+      <c r="H59">
+        <v>0.02474581900559612</v>
+      </c>
+      <c r="I59">
+        <v>0.02314522699457857</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1732408286519691</v>
+        <v>-0.1934244747397887</v>
       </c>
       <c r="C60">
-        <v>0.08110612177888217</v>
+        <v>-0.02611405494639402</v>
       </c>
       <c r="D60">
-        <v>-0.01398339153723598</v>
+        <v>5.083185246515547e-05</v>
       </c>
       <c r="E60">
-        <v>-0.08310874828877214</v>
+        <v>-0.06968622172301051</v>
       </c>
       <c r="F60">
-        <v>0.1457307727680845</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.03028946587161017</v>
+      </c>
+      <c r="G60">
+        <v>-0.2114214901286424</v>
+      </c>
+      <c r="H60">
+        <v>-0.3513631906971547</v>
+      </c>
+      <c r="I60">
+        <v>0.06098555170739173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03283210790422938</v>
+        <v>-0.03427958110671645</v>
       </c>
       <c r="C61">
-        <v>0.008813980062069343</v>
+        <v>-0.01505868009450971</v>
       </c>
       <c r="D61">
-        <v>-0.02003653351668956</v>
+        <v>0.03107685322994361</v>
       </c>
       <c r="E61">
-        <v>0.0167332569723419</v>
+        <v>0.01156829667635374</v>
       </c>
       <c r="F61">
-        <v>0.03287366617272677</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02678687150592313</v>
+      </c>
+      <c r="G61">
+        <v>-0.03552753105770469</v>
+      </c>
+      <c r="H61">
+        <v>-0.01214125856890709</v>
+      </c>
+      <c r="I61">
+        <v>0.01623830645794615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.02791709451557036</v>
+        <v>-0.02519866246669701</v>
       </c>
       <c r="C63">
-        <v>0.02038954619534461</v>
+        <v>-0.004071838918699233</v>
       </c>
       <c r="D63">
-        <v>-0.04506439310345552</v>
+        <v>0.02308115252009298</v>
       </c>
       <c r="E63">
-        <v>0.01847525835446417</v>
+        <v>0.006588459643983633</v>
       </c>
       <c r="F63">
-        <v>0.04173780306825327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02534264834554879</v>
+      </c>
+      <c r="G63">
+        <v>-0.02398319908223541</v>
+      </c>
+      <c r="H63">
+        <v>0.05075456385015891</v>
+      </c>
+      <c r="I63">
+        <v>-0.001389295559683794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05260529953704988</v>
+        <v>-0.05050283845680342</v>
       </c>
       <c r="C64">
-        <v>0.009369395635847579</v>
+        <v>-0.01336897400367452</v>
       </c>
       <c r="D64">
-        <v>-0.04480979658737889</v>
+        <v>0.0352344929062864</v>
       </c>
       <c r="E64">
-        <v>0.05482009274573141</v>
+        <v>0.02126085306145828</v>
       </c>
       <c r="F64">
-        <v>0.04070991747776453</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03063117310756752</v>
+      </c>
+      <c r="G64">
+        <v>-0.03247186997287721</v>
+      </c>
+      <c r="H64">
+        <v>0.03581704979805797</v>
+      </c>
+      <c r="I64">
+        <v>0.06238178424932912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.005700921026839497</v>
+        <v>-0.03299977311845423</v>
       </c>
       <c r="C65">
-        <v>0.0001953948858288629</v>
+        <v>0.003056121483885053</v>
       </c>
       <c r="D65">
-        <v>0.0006113773026927219</v>
+        <v>0.01881714157060056</v>
       </c>
       <c r="E65">
-        <v>-0.006502676940699896</v>
+        <v>0.009250748948566194</v>
       </c>
       <c r="F65">
-        <v>0.002590789909830974</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02203195696061692</v>
+      </c>
+      <c r="G65">
+        <v>-0.01563356169978203</v>
+      </c>
+      <c r="H65">
+        <v>-0.03894296511715552</v>
+      </c>
+      <c r="I65">
+        <v>-0.006405470966843597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.05260533457040067</v>
+        <v>-0.04888690696427638</v>
       </c>
       <c r="C66">
-        <v>0.02425042082474558</v>
+        <v>-0.01742956887683987</v>
       </c>
       <c r="D66">
-        <v>-0.06028413245217191</v>
+        <v>0.05941977924153011</v>
       </c>
       <c r="E66">
-        <v>0.0251287102378027</v>
+        <v>0.006516663452347717</v>
       </c>
       <c r="F66">
-        <v>0.07974065506277955</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05904230535999213</v>
+      </c>
+      <c r="G66">
+        <v>-0.06453022453485777</v>
+      </c>
+      <c r="H66">
+        <v>-0.01374569461635116</v>
+      </c>
+      <c r="I66">
+        <v>0.01385269973221463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03426243103887305</v>
+        <v>-0.04084582177565556</v>
       </c>
       <c r="C67">
-        <v>0.01987479827413394</v>
+        <v>-0.01052321350062659</v>
       </c>
       <c r="D67">
-        <v>0.02092940647664599</v>
+        <v>-0.006442747178861844</v>
       </c>
       <c r="E67">
-        <v>-0.01005846843046475</v>
+        <v>-0.003060826640684301</v>
       </c>
       <c r="F67">
-        <v>0.02177446032721599</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.006340949337340785</v>
+      </c>
+      <c r="G67">
+        <v>-0.03231523542570385</v>
+      </c>
+      <c r="H67">
+        <v>0.00804001218119081</v>
+      </c>
+      <c r="I67">
+        <v>0.04792393336151268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.06316557373659717</v>
+        <v>-0.09948661063034939</v>
       </c>
       <c r="C68">
-        <v>0.1149742524003279</v>
+        <v>0.04312094579444142</v>
       </c>
       <c r="D68">
-        <v>0.1847717585045082</v>
+        <v>-0.2057623457972576</v>
       </c>
       <c r="E68">
-        <v>-0.116647786500656</v>
+        <v>-0.09763739075378339</v>
       </c>
       <c r="F68">
-        <v>-0.02702980834115359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05906754190236622</v>
+      </c>
+      <c r="G68">
+        <v>-0.001344832134015648</v>
+      </c>
+      <c r="H68">
+        <v>0.04045598584527699</v>
+      </c>
+      <c r="I68">
+        <v>-0.01733447945106908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07061816293750774</v>
+        <v>-0.0667211678583088</v>
       </c>
       <c r="C69">
-        <v>0.03094050449097841</v>
+        <v>-0.02466254383830751</v>
       </c>
       <c r="D69">
-        <v>-0.02293832853420572</v>
+        <v>0.01843277696201749</v>
       </c>
       <c r="E69">
-        <v>-0.000532425411853908</v>
+        <v>-0.00137479830555588</v>
       </c>
       <c r="F69">
-        <v>-0.01277023058143599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02842477864051844</v>
+      </c>
+      <c r="G69">
+        <v>0.0128947149770252</v>
+      </c>
+      <c r="H69">
+        <v>0.04630181523381428</v>
+      </c>
+      <c r="I69">
+        <v>0.02614008817971067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.06171558823319075</v>
+        <v>-0.0958025351690817</v>
       </c>
       <c r="C71">
-        <v>0.1386391449808651</v>
+        <v>0.03374129582186861</v>
       </c>
       <c r="D71">
-        <v>0.2328082776599294</v>
+        <v>-0.2252094710136594</v>
       </c>
       <c r="E71">
-        <v>-0.1980762215123001</v>
+        <v>-0.1114474987249511</v>
       </c>
       <c r="F71">
-        <v>0.007729536731253474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.08470609955746344</v>
+      </c>
+      <c r="G71">
+        <v>-0.02700479537915028</v>
+      </c>
+      <c r="H71">
+        <v>0.02538368392692009</v>
+      </c>
+      <c r="I71">
+        <v>0.01698341004535634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1187914063351506</v>
+        <v>-0.1279807992129919</v>
       </c>
       <c r="C72">
-        <v>0.08552056022266974</v>
+        <v>-0.05310187696696842</v>
       </c>
       <c r="D72">
-        <v>-0.05306852546822845</v>
+        <v>0.05361266277622769</v>
       </c>
       <c r="E72">
-        <v>0.03244863665150632</v>
+        <v>-1.237128885336773e-05</v>
       </c>
       <c r="F72">
-        <v>0.02095753471272247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1084800473921432</v>
+      </c>
+      <c r="G72">
+        <v>-0.09105266937494957</v>
+      </c>
+      <c r="H72">
+        <v>-0.08117210174653185</v>
+      </c>
+      <c r="I72">
+        <v>0.02674164828730241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2657858825889615</v>
+        <v>-0.2713658698606992</v>
       </c>
       <c r="C73">
-        <v>0.125778137975176</v>
+        <v>-0.03771912908994597</v>
       </c>
       <c r="D73">
-        <v>0.03482607455668796</v>
+        <v>0.0174422831889588</v>
       </c>
       <c r="E73">
-        <v>-0.1326253031823521</v>
+        <v>-0.1013056177218395</v>
       </c>
       <c r="F73">
-        <v>0.2827658737367887</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.007147123762439466</v>
+      </c>
+      <c r="G73">
+        <v>-0.311132071846247</v>
+      </c>
+      <c r="H73">
+        <v>-0.5174988987674253</v>
+      </c>
+      <c r="I73">
+        <v>0.03162671112884348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1361257075842223</v>
+        <v>-0.1318551366118041</v>
       </c>
       <c r="C74">
-        <v>0.02808606690409518</v>
+        <v>-0.04777372952598462</v>
       </c>
       <c r="D74">
-        <v>-0.04370281548318413</v>
+        <v>0.05134883342217839</v>
       </c>
       <c r="E74">
-        <v>0.02363734469920617</v>
+        <v>0.007828221463220182</v>
       </c>
       <c r="F74">
-        <v>-0.07603559022954873</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05521196483165847</v>
+      </c>
+      <c r="G74">
+        <v>0.08428737755258817</v>
+      </c>
+      <c r="H74">
+        <v>-0.02247268356403851</v>
+      </c>
+      <c r="I74">
+        <v>0.003256669483369752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2181601687609298</v>
+        <v>-0.2313894275240023</v>
       </c>
       <c r="C75">
-        <v>0.09761504680195437</v>
+        <v>-0.08170557666227531</v>
       </c>
       <c r="D75">
-        <v>-0.0912982711928372</v>
+        <v>0.05800792733192212</v>
       </c>
       <c r="E75">
-        <v>0.02710500148139255</v>
+        <v>-0.0145712380625685</v>
       </c>
       <c r="F75">
-        <v>-0.1653076334036166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1237432162784868</v>
+      </c>
+      <c r="G75">
+        <v>0.1580615287774724</v>
+      </c>
+      <c r="H75">
+        <v>0.01310997188346131</v>
+      </c>
+      <c r="I75">
+        <v>0.005559802440248609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2393018292183177</v>
+        <v>-0.2331226352293449</v>
       </c>
       <c r="C76">
-        <v>0.1074037518003245</v>
+        <v>-0.09196914303486851</v>
       </c>
       <c r="D76">
-        <v>-0.04233768874411218</v>
+        <v>0.04065972239094624</v>
       </c>
       <c r="E76">
-        <v>0.08544872326150928</v>
+        <v>0.02635327205820071</v>
       </c>
       <c r="F76">
-        <v>-0.1578135193354916</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1365023588197606</v>
+      </c>
+      <c r="G76">
+        <v>0.2029947400187514</v>
+      </c>
+      <c r="H76">
+        <v>-4.611632608113859e-05</v>
+      </c>
+      <c r="I76">
+        <v>-0.06618140681832133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1512785044535986</v>
+        <v>-0.1002937183094043</v>
       </c>
       <c r="C77">
-        <v>-0.02755638661954623</v>
+        <v>-0.0202533282274827</v>
       </c>
       <c r="D77">
-        <v>-0.06639557838307196</v>
+        <v>0.08160466365431383</v>
       </c>
       <c r="E77">
-        <v>-0.01196559505587523</v>
+        <v>0.01658688800829991</v>
       </c>
       <c r="F77">
-        <v>0.2259393607761299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03374303477950156</v>
+      </c>
+      <c r="G77">
+        <v>-0.1502298459825583</v>
+      </c>
+      <c r="H77">
+        <v>0.2209499759988235</v>
+      </c>
+      <c r="I77">
+        <v>-0.07592622292244056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08189761786230726</v>
+        <v>-0.05658659909064848</v>
       </c>
       <c r="C78">
-        <v>-0.01362398469755899</v>
+        <v>-0.02003924925628616</v>
       </c>
       <c r="D78">
-        <v>-0.07892525630895957</v>
+        <v>0.06081189084391576</v>
       </c>
       <c r="E78">
-        <v>0.04690071059569696</v>
+        <v>0.02305235934671076</v>
       </c>
       <c r="F78">
-        <v>0.05022420302265594</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.0374588961665036</v>
+      </c>
+      <c r="G78">
+        <v>-0.06953228274241291</v>
+      </c>
+      <c r="H78">
+        <v>0.03301260801531755</v>
+      </c>
+      <c r="I78">
+        <v>0.01594920660968287</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1499009154917412</v>
+        <v>-0.1689382522885215</v>
       </c>
       <c r="C80">
-        <v>-0.09477044088587326</v>
+        <v>-0.02680505503984218</v>
       </c>
       <c r="D80">
-        <v>0.5421243594065108</v>
+        <v>-0.3724040208579283</v>
       </c>
       <c r="E80">
-        <v>0.7902450141556929</v>
+        <v>0.8967947475188399</v>
       </c>
       <c r="F80">
-        <v>0.1268759655247772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02408270383706171</v>
+      </c>
+      <c r="G80">
+        <v>-0.08101406432302055</v>
+      </c>
+      <c r="H80">
+        <v>-0.02500928247977595</v>
+      </c>
+      <c r="I80">
+        <v>0.03414922508414981</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1607320464337975</v>
+        <v>-0.1729455602748637</v>
       </c>
       <c r="C81">
-        <v>0.07773763534846512</v>
+        <v>-0.06115603536483622</v>
       </c>
       <c r="D81">
-        <v>-0.05457842513301769</v>
+        <v>0.03817436838026412</v>
       </c>
       <c r="E81">
-        <v>0.0376880981276853</v>
+        <v>0.004269216371660368</v>
       </c>
       <c r="F81">
-        <v>-0.1537623390096338</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09968525720003209</v>
+      </c>
+      <c r="G81">
+        <v>0.1411871090668581</v>
+      </c>
+      <c r="H81">
+        <v>0.01287829070026071</v>
+      </c>
+      <c r="I81">
+        <v>-0.04707323550629196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06558453806215764</v>
+        <v>-0.0491102102962674</v>
       </c>
       <c r="C83">
-        <v>-0.03919811217855395</v>
+        <v>-0.01192844448369866</v>
       </c>
       <c r="D83">
-        <v>-0.06443228384622253</v>
+        <v>0.04691158712073789</v>
       </c>
       <c r="E83">
-        <v>0.004699050963694668</v>
+        <v>0.004816477215267352</v>
       </c>
       <c r="F83">
-        <v>0.04982775793910112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.009777742421427531</v>
+      </c>
+      <c r="G83">
+        <v>-0.05252287452341663</v>
+      </c>
+      <c r="H83">
+        <v>0.03328913139332356</v>
+      </c>
+      <c r="I83">
+        <v>0.02224850821027994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2185251997154831</v>
+        <v>-0.2252749507016611</v>
       </c>
       <c r="C85">
-        <v>0.05752899597866754</v>
+        <v>-0.07623872354612293</v>
       </c>
       <c r="D85">
-        <v>-0.07909413801344874</v>
+        <v>0.08544508482541181</v>
       </c>
       <c r="E85">
-        <v>0.07602344724172132</v>
+        <v>0.01278137558493367</v>
       </c>
       <c r="F85">
-        <v>-0.2087270521527123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1185372013014097</v>
+      </c>
+      <c r="G85">
+        <v>0.1981034976222239</v>
+      </c>
+      <c r="H85">
+        <v>0.00709794101429235</v>
+      </c>
+      <c r="I85">
+        <v>-0.02520927978943878</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02449044475759399</v>
+        <v>-0.01779165627663343</v>
       </c>
       <c r="C86">
-        <v>-0.007948018879042952</v>
+        <v>-0.006333510280857797</v>
       </c>
       <c r="D86">
-        <v>-0.0617574278146119</v>
+        <v>0.04041740209985017</v>
       </c>
       <c r="E86">
-        <v>0.01894985895414733</v>
+        <v>0.0115367998617609</v>
       </c>
       <c r="F86">
-        <v>0.07862967947550813</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01379961722945595</v>
+      </c>
+      <c r="G86">
+        <v>-0.07592140408556425</v>
+      </c>
+      <c r="H86">
+        <v>0.06174924563980489</v>
+      </c>
+      <c r="I86">
+        <v>0.009946966603291783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01786740185470465</v>
+        <v>-0.02624316083807892</v>
       </c>
       <c r="C87">
-        <v>0.03608054923358697</v>
+        <v>-0.002807632219816381</v>
       </c>
       <c r="D87">
-        <v>0.04536184764729913</v>
+        <v>-0.0106161316137095</v>
       </c>
       <c r="E87">
-        <v>-0.03781407912667679</v>
+        <v>-0.004249386128780775</v>
       </c>
       <c r="F87">
-        <v>0.0959941155754897</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.006009371039284408</v>
+      </c>
+      <c r="G87">
+        <v>-0.104417541708595</v>
+      </c>
+      <c r="H87">
+        <v>0.003604799207388116</v>
+      </c>
+      <c r="I87">
+        <v>-0.01600960876005786</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01335047865414734</v>
+        <v>-0.03232861063613759</v>
       </c>
       <c r="C88">
-        <v>0.01161142356276465</v>
+        <v>-0.008004818838624838</v>
       </c>
       <c r="D88">
-        <v>0.005341600762618726</v>
+        <v>-0.00766244766354916</v>
       </c>
       <c r="E88">
-        <v>0.01845419836263588</v>
+        <v>0.000526575383242815</v>
       </c>
       <c r="F88">
-        <v>-0.001345717612262309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01331806004565516</v>
+      </c>
+      <c r="G88">
+        <v>0.006899570379203876</v>
+      </c>
+      <c r="H88">
+        <v>0.01978439568668889</v>
+      </c>
+      <c r="I88">
+        <v>0.06044444004435238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.09757592600888083</v>
+        <v>-0.1616029926284953</v>
       </c>
       <c r="C89">
-        <v>0.1356385724339701</v>
+        <v>0.05667173109391015</v>
       </c>
       <c r="D89">
-        <v>0.2547290915444174</v>
+        <v>-0.3242011000956744</v>
       </c>
       <c r="E89">
-        <v>-0.2093801367615953</v>
+        <v>-0.1834111767125527</v>
       </c>
       <c r="F89">
-        <v>-0.01510889769909664</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.107742802837139</v>
+      </c>
+      <c r="G89">
+        <v>-0.005230997150342843</v>
+      </c>
+      <c r="H89">
+        <v>0.09816236846355469</v>
+      </c>
+      <c r="I89">
+        <v>-0.002683154033042924</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.08123589612161122</v>
+        <v>-0.1141948082193827</v>
       </c>
       <c r="C90">
-        <v>0.1361618268285517</v>
+        <v>0.04892932564267907</v>
       </c>
       <c r="D90">
-        <v>0.2612158566432827</v>
+        <v>-0.2794573349203303</v>
       </c>
       <c r="E90">
-        <v>-0.1446698735929935</v>
+        <v>-0.1352301784119008</v>
       </c>
       <c r="F90">
-        <v>-0.01892312238022403</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.09507567941205719</v>
+      </c>
+      <c r="G90">
+        <v>0.0310702281582855</v>
+      </c>
+      <c r="H90">
+        <v>0.06564516566743307</v>
+      </c>
+      <c r="I90">
+        <v>-0.0009089230194151114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2765128487214427</v>
+        <v>-0.2638231972809676</v>
       </c>
       <c r="C91">
-        <v>0.06419017401581549</v>
+        <v>-0.09566551004206784</v>
       </c>
       <c r="D91">
-        <v>-0.1060851417915335</v>
+        <v>0.09839238978826681</v>
       </c>
       <c r="E91">
-        <v>0.07808180988214714</v>
+        <v>0.01110246416769715</v>
       </c>
       <c r="F91">
-        <v>-0.2511993321845961</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1155811962828866</v>
+      </c>
+      <c r="G91">
+        <v>0.2577592833005981</v>
+      </c>
+      <c r="H91">
+        <v>0.02439794964607201</v>
+      </c>
+      <c r="I91">
+        <v>-0.06343241550541835</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1279388492743372</v>
+        <v>-0.1944972330616269</v>
       </c>
       <c r="C92">
-        <v>0.1116490060728951</v>
+        <v>-0.01639403278562387</v>
       </c>
       <c r="D92">
-        <v>0.2763469517452311</v>
+        <v>-0.2973593041216614</v>
       </c>
       <c r="E92">
-        <v>-0.1375680696663862</v>
+        <v>-0.1277774197838609</v>
       </c>
       <c r="F92">
-        <v>-0.03677362512364354</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09436493680767957</v>
+      </c>
+      <c r="G92">
+        <v>0.0923955369192664</v>
+      </c>
+      <c r="H92">
+        <v>0.1752734508931497</v>
+      </c>
+      <c r="I92">
+        <v>-0.009765404721892076</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.08253889473974353</v>
+        <v>-0.1419550707842755</v>
       </c>
       <c r="C93">
-        <v>0.133405414463042</v>
+        <v>0.04609923651310775</v>
       </c>
       <c r="D93">
-        <v>0.3178085475550479</v>
+        <v>-0.3328037282553568</v>
       </c>
       <c r="E93">
-        <v>-0.1937473657504749</v>
+        <v>-0.1722291154626814</v>
       </c>
       <c r="F93">
-        <v>-0.06241542207193082</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1466232186949818</v>
+      </c>
+      <c r="G93">
+        <v>0.03364968552221424</v>
+      </c>
+      <c r="H93">
+        <v>0.0134875969632368</v>
+      </c>
+      <c r="I93">
+        <v>0.03017619923288214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2606655063721579</v>
+        <v>-0.285648275142472</v>
       </c>
       <c r="C94">
-        <v>0.1129218302732493</v>
+        <v>-0.07643636018824657</v>
       </c>
       <c r="D94">
-        <v>0.003000142513871055</v>
+        <v>0.03149349595236323</v>
       </c>
       <c r="E94">
-        <v>0.02217171261542166</v>
+        <v>-0.03472628715983414</v>
       </c>
       <c r="F94">
-        <v>-0.2828234386068101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1340864407806463</v>
+      </c>
+      <c r="G94">
+        <v>0.2952468945723372</v>
+      </c>
+      <c r="H94">
+        <v>-0.008053209377423128</v>
+      </c>
+      <c r="I94">
+        <v>-0.2128245359943962</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1438140110870124</v>
+        <v>-0.1133719557787447</v>
       </c>
       <c r="C95">
-        <v>-0.008802264006887285</v>
+        <v>-0.06164239019143874</v>
       </c>
       <c r="D95">
-        <v>-0.1958377277191665</v>
+        <v>0.1022510037673853</v>
       </c>
       <c r="E95">
-        <v>0.05641076910461975</v>
+        <v>-0.05013054876883511</v>
       </c>
       <c r="F95">
-        <v>-0.3377077739936351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.04256978870974393</v>
+      </c>
+      <c r="G95">
+        <v>0.05348482233637154</v>
+      </c>
+      <c r="H95">
+        <v>0.1889592444324934</v>
+      </c>
+      <c r="I95">
+        <v>0.8487796911079489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1919006610121005</v>
+        <v>-0.205826140440944</v>
       </c>
       <c r="C98">
-        <v>0.06244189159595061</v>
+        <v>-0.04851212360600373</v>
       </c>
       <c r="D98">
-        <v>0.01834895670353825</v>
+        <v>6.613223755150198e-05</v>
       </c>
       <c r="E98">
-        <v>-0.1106617071636239</v>
+        <v>-0.07297506508249671</v>
       </c>
       <c r="F98">
-        <v>0.1445465290894677</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01303004050816741</v>
+      </c>
+      <c r="G98">
+        <v>-0.2321053310534966</v>
+      </c>
+      <c r="H98">
+        <v>-0.3598468698934401</v>
+      </c>
+      <c r="I98">
+        <v>0.03285150080564035</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.00428847556205097</v>
+        <v>-0.01685101338530169</v>
       </c>
       <c r="C101">
-        <v>0.01749150307171014</v>
+        <v>-0.002510362955026504</v>
       </c>
       <c r="D101">
-        <v>-0.05917820396902571</v>
+        <v>0.02146553480116803</v>
       </c>
       <c r="E101">
-        <v>0.04271506457369136</v>
+        <v>0.01041068353957968</v>
       </c>
       <c r="F101">
-        <v>0.03266966214174435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04220080993881759</v>
+      </c>
+      <c r="G101">
+        <v>-0.07031450690716919</v>
+      </c>
+      <c r="H101">
+        <v>0.1196288684931489</v>
+      </c>
+      <c r="I101">
+        <v>-0.02991253038769176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.0887550061138449</v>
+        <v>-0.1100393229024264</v>
       </c>
       <c r="C102">
-        <v>0.02252203248429376</v>
+        <v>-0.02623017159771019</v>
       </c>
       <c r="D102">
-        <v>-0.04460543634666365</v>
+        <v>0.03556654290330195</v>
       </c>
       <c r="E102">
-        <v>0.05469755866812098</v>
+        <v>0.01022823916906468</v>
       </c>
       <c r="F102">
-        <v>-0.1073378235465117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.058520670251148</v>
+      </c>
+      <c r="G102">
+        <v>0.1133883462653132</v>
+      </c>
+      <c r="H102">
+        <v>0.003392391383252865</v>
+      </c>
+      <c r="I102">
+        <v>-0.007506090962119956</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01871854365702163</v>
+        <v>-0.02555293477997946</v>
       </c>
       <c r="C103">
-        <v>0.01217776912359745</v>
+        <v>-0.008124027528507986</v>
       </c>
       <c r="D103">
-        <v>-0.001274065484256748</v>
+        <v>0.003751736027717687</v>
       </c>
       <c r="E103">
-        <v>0.0071748600140157</v>
+        <v>0.008878028189396767</v>
       </c>
       <c r="F103">
-        <v>-0.03261189583242015</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.016960483650178</v>
+      </c>
+      <c r="G103">
+        <v>0.02289278504278612</v>
+      </c>
+      <c r="H103">
+        <v>0.01405231509346366</v>
+      </c>
+      <c r="I103">
+        <v>0.003170771112215516</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1798138313283734</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9538660284735281</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1072924094353502</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0457751190941634</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1812375707341709</v>
+      </c>
+      <c r="G104">
+        <v>0.02722998797412055</v>
+      </c>
+      <c r="H104">
+        <v>0.006117298593280697</v>
+      </c>
+      <c r="I104">
+        <v>0.005829547258836259</v>
       </c>
     </row>
   </sheetData>
